--- a/考勤小程序/交付版本v3-添加模版/2-考勤结果/考勤总表.xlsx
+++ b/考勤小程序/交付版本v3-添加模版/2-考勤结果/考勤总表.xlsx
@@ -1049,7 +1049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A30" sqref="$A30:$XFD107"/>
@@ -1077,38 +1077,46 @@
           <t>名单</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>20220613周一-第4节课</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>20220613周一-课间操</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>20220611周六-课间操</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>20220611周六-第1节课</t>
         </is>
       </c>
-      <c r="I1" s="6" t="n"/>
-      <c r="J1" s="6" t="n"/>
       <c r="K1" s="6" t="n"/>
       <c r="L1" s="6" t="n"/>
       <c r="M1" s="6" t="n"/>
@@ -1117,6 +1125,8 @@
       <c r="P1" s="6" t="n"/>
       <c r="Q1" s="6" t="n"/>
       <c r="R1" s="6" t="n"/>
+      <c r="S1" s="6" t="n"/>
+      <c r="T1" s="6" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1" s="7">
       <c r="A2" s="4" t="inlineStr">
@@ -1129,18 +1139,18 @@
           <t>崔昊元</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
     </row>
     <row r="3" ht="18" customHeight="1" s="7">
       <c r="A3" s="4" t="inlineStr">
@@ -1153,18 +1163,18 @@
           <t>贾靖程</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
       <c r="K3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1" s="7">
       <c r="A4" s="4" t="inlineStr">
@@ -1177,18 +1187,18 @@
           <t>吴俊岳</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
       <c r="K4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1" s="7">
       <c r="A5" s="4" t="inlineStr">
@@ -1201,12 +1211,12 @@
           <t>王浩羽</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>迟到</t>
         </is>
@@ -1223,17 +1233,17 @@
           <t>吕梦丽</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>早退</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1" s="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1246,17 +1256,17 @@
           <t>牛皓冬</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="L7" s="5" t="n"/>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1" s="7">
       <c r="A8" s="4" t="inlineStr">
@@ -1269,18 +1279,18 @@
           <t>张阔</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="n"/>
+      <c r="N8" s="5" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1" s="7">
       <c r="A9" s="4" t="inlineStr">
@@ -1293,17 +1303,17 @@
           <t>孙佳奇</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I9" s="5" t="n"/>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1" s="7">
       <c r="A10" s="4" t="inlineStr">
@@ -1316,17 +1326,17 @@
           <t>郑佳睦</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1" s="7">
       <c r="A11" s="4" t="inlineStr">
@@ -1339,17 +1349,17 @@
           <t>王孝天</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n"/>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1" s="7">
       <c r="A12" s="4" t="inlineStr">
@@ -1362,17 +1372,17 @@
           <t>付一鸣</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n"/>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1" s="7">
       <c r="A13" s="4" t="inlineStr">
@@ -1385,17 +1395,17 @@
           <t>李蓉轩</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n"/>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1" s="7">
       <c r="A14" s="4" t="inlineStr">
@@ -1408,17 +1418,17 @@
           <t>陈观绅</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n"/>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1" s="7">
       <c r="A15" s="4" t="inlineStr">
@@ -1431,17 +1441,17 @@
           <t>赵鑫博</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n"/>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1" s="7">
       <c r="A16" s="4" t="inlineStr">
@@ -1454,17 +1464,17 @@
           <t>张子豪</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n"/>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1" s="7">
       <c r="A17" s="4" t="inlineStr">
@@ -1477,18 +1487,18 @@
           <t>叶平</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="n"/>
+      <c r="N17" s="5" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="7">
       <c r="A18" s="4" t="inlineStr">
@@ -1501,9 +1511,14 @@
           <t>侯文杰</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>备赛</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
@@ -1511,18 +1526,23 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
         <is>
           <t>迟到</t>
         </is>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="J18" s="8" t="inlineStr">
         <is>
           <t>其他情况</t>
         </is>
       </c>
-      <c r="J18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
+      <c r="L18" s="5" t="n"/>
+      <c r="O18" s="5" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1" s="7">
       <c r="A19" s="4" t="inlineStr">
@@ -1535,7 +1555,12 @@
           <t>黄新之</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1550,12 +1575,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="M19" s="5" t="n"/>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="O19" s="5" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1" s="7">
       <c r="A20" s="4" t="inlineStr">
@@ -1568,7 +1598,12 @@
           <t>杨智恒</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1583,12 +1618,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H20" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="n"/>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="n"/>
     </row>
     <row r="21" ht="18" customHeight="1" s="7">
       <c r="A21" s="4" t="inlineStr">
@@ -1601,7 +1641,12 @@
           <t>杨悦昕</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1616,7 +1661,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1633,7 +1683,12 @@
           <t>刘洋</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1648,12 +1703,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H22" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="J22" s="5" t="n"/>
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="n"/>
     </row>
     <row r="23" ht="18" customHeight="1" s="7">
       <c r="A23" s="4" t="inlineStr">
@@ -1666,7 +1726,12 @@
           <t>靳馨娴</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1681,12 +1746,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H23" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="J23" s="5" t="n"/>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="n"/>
     </row>
     <row r="24" ht="18" customHeight="1" s="7">
       <c r="A24" s="4" t="inlineStr">
@@ -1699,7 +1769,12 @@
           <t>白轶臣</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1714,12 +1789,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H24" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="J24" s="5" t="n"/>
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="n"/>
     </row>
     <row r="25" ht="18" customHeight="1" s="7">
       <c r="A25" s="4" t="inlineStr">
@@ -1732,7 +1812,12 @@
           <t>蒋文拓</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1747,7 +1832,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H25" s="6" t="inlineStr">
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J25" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1764,7 +1854,12 @@
           <t>赵梓豪</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1779,12 +1874,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H26" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="n"/>
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="O26" s="5" t="n"/>
     </row>
     <row r="27" ht="18" customHeight="1" s="7">
       <c r="A27" s="4" t="inlineStr">
@@ -1797,7 +1897,12 @@
           <t>杨梓琦</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1812,12 +1917,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H27" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="n"/>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J27" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="n"/>
     </row>
     <row r="28" ht="18" customHeight="1" s="7">
       <c r="A28" s="4" t="inlineStr">
@@ -1830,7 +1940,12 @@
           <t>吕铭</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1845,12 +1960,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H28" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="n"/>
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1" s="7">
       <c r="A29" s="4" t="inlineStr">
@@ -1863,27 +1983,37 @@
           <t>刘子豪</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>备赛</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>请假</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="inlineStr">
         <is>
           <t>其他情况</t>
         </is>
       </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="H29" s="8" t="inlineStr">
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J29" s="8" t="inlineStr">
         <is>
           <t>做核酸</t>
         </is>
       </c>
-      <c r="M29" s="5" t="n"/>
+      <c r="O29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n"/>
@@ -2232,7 +2362,7 @@
           <t>名单</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>20220613周一-早读</t>
         </is>
@@ -2264,7 +2394,7 @@
           <t>崔昊元</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2291,7 +2421,7 @@
           <t>贾靖程</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2320,7 +2450,7 @@
           <t>吴俊岳</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2348,7 +2478,7 @@
           <t>王浩羽</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2376,7 +2506,7 @@
           <t>吕梦丽</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2404,7 +2534,7 @@
           <t>牛皓冬</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2431,7 +2561,7 @@
           <t>张阔</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2459,7 +2589,7 @@
           <t>孙佳奇</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2489,7 +2619,7 @@
           <t>郑佳睦</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2516,7 +2646,7 @@
           <t>王孝天</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2572,7 +2702,7 @@
           <t>李蓉轩</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2601,7 +2731,7 @@
           <t>陈观绅</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2629,7 +2759,7 @@
           <t>赵鑫博</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2656,7 +2786,7 @@
           <t>张子豪</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2683,7 +2813,7 @@
           <t>叶平</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2732,7 +2862,7 @@
           <t>钱炳东</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2754,7 +2884,7 @@
           <t>黄文龙</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2798,7 +2928,7 @@
           <t>林俊如</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2820,7 +2950,7 @@
           <t>付鹏洲</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2842,7 +2972,7 @@
           <t>朱震霆</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2864,7 +2994,7 @@
           <t>谢泽和</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2886,7 +3016,7 @@
           <t>刘燕玲</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2908,7 +3038,7 @@
           <t>苏丽莹</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2930,7 +3060,7 @@
           <t>苏樟林</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2952,7 +3082,7 @@
           <t>吴晓涛</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
